--- a/Data/ISPU 2020.xlsx
+++ b/Data/ISPU 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyne\Documents\Sem 5\Pemodelan generator data\RBL\ISPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyne\Documents\Sem 5\Pemodelan generator data\RBL\ISPU\ISPU 2020-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9295DB87-B5F4-4AC7-9C90-2802F91EBB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21ED3452-1046-4253-97AB-379516AB02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{4CE67E8C-7BAA-4035-B660-D1ABD5873493}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{4CE67E8C-7BAA-4035-B660-D1ABD5873493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>tanggal</t>
-  </si>
-  <si>
-    <t>pm10</t>
   </si>
   <si>
     <t>so2</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>SO2</t>
+  </si>
+  <si>
+    <t>pm_10</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9BAF8-2959-4ACB-B60F-8C979322DA35}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="K351" sqref="K351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1012,7 @@
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,31 +1020,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1073,13 +1073,13 @@
         <v>83</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1108,13 +1108,13 @@
         <v>80</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1143,13 +1143,13 @@
         <v>65</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1178,13 +1178,13 @@
         <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1213,13 +1213,13 @@
         <v>73</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1248,13 +1248,13 @@
         <v>63</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1283,13 +1283,13 @@
         <v>69</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1318,13 +1318,13 @@
         <v>120</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1353,13 +1353,13 @@
         <v>77</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1388,13 +1388,13 @@
         <v>81</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1423,13 +1423,13 @@
         <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1458,13 +1458,13 @@
         <v>81</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1493,13 +1493,13 @@
         <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1528,13 +1528,13 @@
         <v>64</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1563,13 +1563,13 @@
         <v>66</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1598,13 +1598,13 @@
         <v>77</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1633,13 +1633,13 @@
         <v>122</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1668,13 +1668,13 @@
         <v>79</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1703,13 +1703,13 @@
         <v>119</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1738,13 +1738,13 @@
         <v>73</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1773,13 +1773,13 @@
         <v>79</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1808,13 +1808,13 @@
         <v>88</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1843,13 +1843,13 @@
         <v>87</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1878,13 +1878,13 @@
         <v>65</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1913,13 +1913,13 @@
         <v>50</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1948,13 +1948,13 @@
         <v>52</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1983,13 +1983,13 @@
         <v>76</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2018,13 +2018,13 @@
         <v>136</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2053,13 +2053,13 @@
         <v>134</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2088,13 +2088,13 @@
         <v>73</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2123,13 +2123,13 @@
         <v>66</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2158,13 +2158,13 @@
         <v>99</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2193,13 +2193,13 @@
         <v>82</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2228,13 +2228,13 @@
         <v>64</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2263,13 +2263,13 @@
         <v>71</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2298,13 +2298,13 @@
         <v>84</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2333,13 +2333,13 @@
         <v>88</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2368,13 +2368,13 @@
         <v>79</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2403,13 +2403,13 @@
         <v>75</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2438,13 +2438,13 @@
         <v>100</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2473,13 +2473,13 @@
         <v>80</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -2508,13 +2508,13 @@
         <v>84</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2543,13 +2543,13 @@
         <v>71</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2578,13 +2578,13 @@
         <v>79</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2613,13 +2613,13 @@
         <v>134</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2648,13 +2648,13 @@
         <v>83</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2683,13 +2683,13 @@
         <v>106</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2718,13 +2718,13 @@
         <v>119</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2753,13 +2753,13 @@
         <v>86</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2788,13 +2788,13 @@
         <v>85</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2823,13 +2823,13 @@
         <v>67</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2858,13 +2858,13 @@
         <v>102</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -2893,13 +2893,13 @@
         <v>93</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -2928,13 +2928,13 @@
         <v>46</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -2963,13 +2963,13 @@
         <v>102</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -2998,13 +2998,13 @@
         <v>63</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3033,13 +3033,13 @@
         <v>85</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -3068,13 +3068,13 @@
         <v>62</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -3103,13 +3103,13 @@
         <v>64</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3138,13 +3138,13 @@
         <v>66</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3173,13 +3173,13 @@
         <v>70</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3208,13 +3208,13 @@
         <v>82</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3243,13 +3243,13 @@
         <v>47</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3278,13 +3278,13 @@
         <v>80</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3313,13 +3313,13 @@
         <v>46</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3348,13 +3348,13 @@
         <v>51</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3383,13 +3383,13 @@
         <v>48</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -3418,13 +3418,13 @@
         <v>63</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -3453,13 +3453,13 @@
         <v>78</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3488,13 +3488,13 @@
         <v>125</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3523,13 +3523,13 @@
         <v>75</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3558,13 +3558,13 @@
         <v>110</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3593,13 +3593,13 @@
         <v>65</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3628,13 +3628,13 @@
         <v>62</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -3663,13 +3663,13 @@
         <v>82</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3698,13 +3698,13 @@
         <v>60</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3733,13 +3733,13 @@
         <v>71</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3768,13 +3768,13 @@
         <v>80</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3803,13 +3803,13 @@
         <v>89</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3838,13 +3838,13 @@
         <v>83</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3873,13 +3873,13 @@
         <v>74</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3908,13 +3908,13 @@
         <v>92</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -3943,13 +3943,13 @@
         <v>80</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -3978,13 +3978,13 @@
         <v>56</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="26.5" x14ac:dyDescent="0.35">
@@ -3998,7 +3998,7 @@
         <v>22</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E86" s="3">
         <v>35</v>
@@ -4013,13 +4013,13 @@
         <v>213</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="26.5" x14ac:dyDescent="0.35">
@@ -4033,10 +4033,10 @@
         <v>22</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F87" s="3">
         <v>201</v>
@@ -4048,13 +4048,13 @@
         <v>201</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4068,7 +4068,7 @@
         <v>54</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E88" s="3">
         <v>39</v>
@@ -4083,13 +4083,13 @@
         <v>152</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="26.5" x14ac:dyDescent="0.35">
@@ -4103,7 +4103,7 @@
         <v>59</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E89" s="3">
         <v>32</v>
@@ -4118,13 +4118,13 @@
         <v>206</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4153,13 +4153,13 @@
         <v>95</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -4188,13 +4188,13 @@
         <v>54</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -4223,13 +4223,13 @@
         <v>58</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4258,13 +4258,13 @@
         <v>59</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -4293,13 +4293,13 @@
         <v>43</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -4328,13 +4328,13 @@
         <v>41</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4363,13 +4363,13 @@
         <v>63</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4398,13 +4398,13 @@
         <v>72</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -4433,13 +4433,13 @@
         <v>69</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -4468,13 +4468,13 @@
         <v>179</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -4503,13 +4503,13 @@
         <v>92</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -4538,13 +4538,13 @@
         <v>70</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -4573,13 +4573,13 @@
         <v>101</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -4608,13 +4608,13 @@
         <v>90</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -4628,7 +4628,7 @@
         <v>69</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E104" s="3">
         <v>33</v>
@@ -4643,13 +4643,13 @@
         <v>99</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -4663,7 +4663,7 @@
         <v>51</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E105" s="3">
         <v>11</v>
@@ -4678,13 +4678,13 @@
         <v>83</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -4698,7 +4698,7 @@
         <v>42</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E106" s="3">
         <v>15</v>
@@ -4713,13 +4713,13 @@
         <v>84</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
         <v>27</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E107" s="3">
         <v>5</v>
@@ -4748,13 +4748,13 @@
         <v>71</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
@@ -4768,7 +4768,7 @@
         <v>52</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E108" s="3">
         <v>14</v>
@@ -4783,13 +4783,13 @@
         <v>105</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -4803,7 +4803,7 @@
         <v>70</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E109" s="3">
         <v>25</v>
@@ -4818,13 +4818,13 @@
         <v>93</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -4838,7 +4838,7 @@
         <v>34</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E110" s="3">
         <v>6</v>
@@ -4853,13 +4853,13 @@
         <v>99</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -4873,7 +4873,7 @@
         <v>44</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111" s="3">
         <v>9</v>
@@ -4888,13 +4888,13 @@
         <v>67</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -4908,7 +4908,7 @@
         <v>40</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E112" s="3">
         <v>6</v>
@@ -4923,13 +4923,13 @@
         <v>117</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -4958,13 +4958,13 @@
         <v>124</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -4993,13 +4993,13 @@
         <v>91</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -5028,13 +5028,13 @@
         <v>76</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -5063,13 +5063,13 @@
         <v>96</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -5098,13 +5098,13 @@
         <v>129</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -5133,13 +5133,13 @@
         <v>57</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -5168,13 +5168,13 @@
         <v>62</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -5203,13 +5203,13 @@
         <v>83</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -5238,13 +5238,13 @@
         <v>103</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -5273,13 +5273,13 @@
         <v>73</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -5308,13 +5308,13 @@
         <v>56</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -5343,13 +5343,13 @@
         <v>69</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -5378,13 +5378,13 @@
         <v>73</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -5413,13 +5413,13 @@
         <v>132</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -5448,13 +5448,13 @@
         <v>135</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -5483,13 +5483,13 @@
         <v>136</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
@@ -5518,13 +5518,13 @@
         <v>86</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
@@ -5553,13 +5553,13 @@
         <v>109</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -5588,13 +5588,13 @@
         <v>109</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -5623,13 +5623,13 @@
         <v>87</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -5658,13 +5658,13 @@
         <v>92</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
@@ -5693,13 +5693,13 @@
         <v>100</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
@@ -5728,13 +5728,13 @@
         <v>147</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
@@ -5763,13 +5763,13 @@
         <v>116</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
@@ -5798,13 +5798,13 @@
         <v>69</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
@@ -5833,13 +5833,13 @@
         <v>111</v>
       </c>
       <c r="I138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J138" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="K138" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
@@ -5868,13 +5868,13 @@
         <v>88</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -5903,13 +5903,13 @@
         <v>71</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
@@ -5938,13 +5938,13 @@
         <v>77</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
@@ -5973,13 +5973,13 @@
         <v>101</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
@@ -6008,13 +6008,13 @@
         <v>131</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
@@ -6043,13 +6043,13 @@
         <v>82</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -6078,13 +6078,13 @@
         <v>85</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
@@ -6113,13 +6113,13 @@
         <v>76</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
@@ -6148,13 +6148,13 @@
         <v>104</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
@@ -6183,13 +6183,13 @@
         <v>97</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
@@ -6218,13 +6218,13 @@
         <v>99</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -6253,13 +6253,13 @@
         <v>98</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
@@ -6288,13 +6288,13 @@
         <v>110</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
@@ -6323,13 +6323,13 @@
         <v>105</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
@@ -6358,13 +6358,13 @@
         <v>131</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
@@ -6393,13 +6393,13 @@
         <v>125</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
@@ -6428,13 +6428,13 @@
         <v>105</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -6463,13 +6463,13 @@
         <v>97</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
@@ -6498,13 +6498,13 @@
         <v>113</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
@@ -6533,13 +6533,13 @@
         <v>103</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -6568,13 +6568,13 @@
         <v>93</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -6603,13 +6603,13 @@
         <v>106</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
@@ -6638,13 +6638,13 @@
         <v>91</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -6673,13 +6673,13 @@
         <v>89</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
@@ -6708,13 +6708,13 @@
         <v>69</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -6743,13 +6743,13 @@
         <v>57</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
@@ -6778,13 +6778,13 @@
         <v>48</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -6813,13 +6813,13 @@
         <v>56</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
@@ -6848,13 +6848,13 @@
         <v>96</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -6883,13 +6883,13 @@
         <v>98</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
@@ -6918,13 +6918,13 @@
         <v>96</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
@@ -6953,13 +6953,13 @@
         <v>72</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
@@ -6988,13 +6988,13 @@
         <v>81</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -7023,13 +7023,13 @@
         <v>67</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
@@ -7058,13 +7058,13 @@
         <v>79</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
@@ -7093,13 +7093,13 @@
         <v>97</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
@@ -7128,13 +7128,13 @@
         <v>99</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
@@ -7163,13 +7163,13 @@
         <v>97</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
@@ -7198,13 +7198,13 @@
         <v>95</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
@@ -7233,13 +7233,13 @@
         <v>74</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
@@ -7268,13 +7268,13 @@
         <v>74</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
@@ -7303,13 +7303,13 @@
         <v>79</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
@@ -7338,13 +7338,13 @@
         <v>75</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
@@ -7373,13 +7373,13 @@
         <v>92</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
@@ -7408,13 +7408,13 @@
         <v>90</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
@@ -7443,13 +7443,13 @@
         <v>71</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
@@ -7478,13 +7478,13 @@
         <v>70</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
@@ -7513,13 +7513,13 @@
         <v>124</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
@@ -7548,13 +7548,13 @@
         <v>85</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
@@ -7583,13 +7583,13 @@
         <v>97</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
@@ -7618,13 +7618,13 @@
         <v>75</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
@@ -7653,13 +7653,13 @@
         <v>81</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
@@ -7688,13 +7688,13 @@
         <v>90</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
@@ -7723,13 +7723,13 @@
         <v>86</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
@@ -7758,13 +7758,13 @@
         <v>94</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
@@ -7793,13 +7793,13 @@
         <v>79</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
@@ -7828,13 +7828,13 @@
         <v>88</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
@@ -7863,13 +7863,13 @@
         <v>71</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
@@ -7898,13 +7898,13 @@
         <v>67</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
@@ -7933,13 +7933,13 @@
         <v>75</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
@@ -7968,13 +7968,13 @@
         <v>63</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
@@ -8003,13 +8003,13 @@
         <v>90</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
@@ -8038,13 +8038,13 @@
         <v>102</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
@@ -8073,13 +8073,13 @@
         <v>113</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
@@ -8108,13 +8108,13 @@
         <v>111</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
@@ -8143,13 +8143,13 @@
         <v>79</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
@@ -8178,13 +8178,13 @@
         <v>71</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
@@ -8213,13 +8213,13 @@
         <v>71</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
@@ -8248,13 +8248,13 @@
         <v>63</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
@@ -8283,13 +8283,13 @@
         <v>55</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
@@ -8318,13 +8318,13 @@
         <v>68</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
@@ -8353,13 +8353,13 @@
         <v>84</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
@@ -8388,13 +8388,13 @@
         <v>90</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
@@ -8423,13 +8423,13 @@
         <v>119</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
@@ -8458,13 +8458,13 @@
         <v>95</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
@@ -8493,13 +8493,13 @@
         <v>75</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
@@ -8528,13 +8528,13 @@
         <v>130</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -8563,13 +8563,13 @@
         <v>98</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
@@ -8598,13 +8598,13 @@
         <v>73</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
@@ -8633,13 +8633,13 @@
         <v>64</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -8668,13 +8668,13 @@
         <v>59</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
@@ -8703,13 +8703,13 @@
         <v>53</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
@@ -8738,13 +8738,13 @@
         <v>67</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
@@ -8773,13 +8773,13 @@
         <v>63</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
@@ -8808,13 +8808,13 @@
         <v>55</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
@@ -8843,13 +8843,13 @@
         <v>74</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
@@ -8878,13 +8878,13 @@
         <v>50</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
@@ -8913,13 +8913,13 @@
         <v>91</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
@@ -8948,13 +8948,13 @@
         <v>98</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
@@ -8983,13 +8983,13 @@
         <v>126</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
@@ -9018,13 +9018,13 @@
         <v>83</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
@@ -9053,13 +9053,13 @@
         <v>81</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
@@ -9088,13 +9088,13 @@
         <v>191</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
@@ -9123,13 +9123,13 @@
         <v>118</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
@@ -9158,13 +9158,13 @@
         <v>170</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
@@ -9193,13 +9193,13 @@
         <v>182</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
@@ -9228,13 +9228,13 @@
         <v>62</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
@@ -9263,13 +9263,13 @@
         <v>73</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
@@ -9298,13 +9298,13 @@
         <v>80</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
@@ -9333,13 +9333,13 @@
         <v>85</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
@@ -9368,13 +9368,13 @@
         <v>88</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
@@ -9403,13 +9403,13 @@
         <v>89</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
@@ -9438,13 +9438,13 @@
         <v>92</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
@@ -9473,13 +9473,13 @@
         <v>89</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
@@ -9508,13 +9508,13 @@
         <v>84</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
@@ -9543,13 +9543,13 @@
         <v>121</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
@@ -9578,13 +9578,13 @@
         <v>144</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
@@ -9613,13 +9613,13 @@
         <v>92</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
@@ -9648,13 +9648,13 @@
         <v>79</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
@@ -9683,13 +9683,13 @@
         <v>89</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
@@ -9718,13 +9718,13 @@
         <v>160</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
@@ -9753,13 +9753,13 @@
         <v>164</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
@@ -9788,13 +9788,13 @@
         <v>136</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
@@ -9823,13 +9823,13 @@
         <v>115</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
@@ -9858,13 +9858,13 @@
         <v>134</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
@@ -9893,13 +9893,13 @@
         <v>102</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
@@ -9928,13 +9928,13 @@
         <v>95</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
@@ -9963,13 +9963,13 @@
         <v>91</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
@@ -9998,13 +9998,13 @@
         <v>86</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
@@ -10033,13 +10033,13 @@
         <v>108</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
@@ -10068,13 +10068,13 @@
         <v>119</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
@@ -10103,13 +10103,13 @@
         <v>79</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
@@ -10138,13 +10138,13 @@
         <v>82</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
@@ -10173,13 +10173,13 @@
         <v>81</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
@@ -10208,13 +10208,13 @@
         <v>96</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
@@ -10243,13 +10243,13 @@
         <v>93</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
@@ -10278,13 +10278,13 @@
         <v>81</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
@@ -10313,13 +10313,13 @@
         <v>68</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
@@ -10348,13 +10348,13 @@
         <v>59</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
@@ -10383,13 +10383,13 @@
         <v>68</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
@@ -10418,13 +10418,13 @@
         <v>67</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
@@ -10453,13 +10453,13 @@
         <v>86</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
@@ -10488,13 +10488,13 @@
         <v>54</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
@@ -10523,13 +10523,13 @@
         <v>78</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
@@ -10558,13 +10558,13 @@
         <v>91</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
@@ -10593,13 +10593,13 @@
         <v>96</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
@@ -10628,13 +10628,13 @@
         <v>139</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
@@ -10663,13 +10663,13 @@
         <v>108</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
@@ -10698,13 +10698,13 @@
         <v>113</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
@@ -10733,13 +10733,13 @@
         <v>120</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
@@ -10768,13 +10768,13 @@
         <v>137</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
@@ -10803,13 +10803,13 @@
         <v>137</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
@@ -10838,13 +10838,13 @@
         <v>96</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
@@ -10873,13 +10873,13 @@
         <v>83</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
@@ -10908,13 +10908,13 @@
         <v>116</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
@@ -10943,13 +10943,13 @@
         <v>87</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
@@ -10978,13 +10978,13 @@
         <v>101</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
@@ -11013,13 +11013,13 @@
         <v>108</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
@@ -11048,13 +11048,13 @@
         <v>95</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
@@ -11083,13 +11083,13 @@
         <v>110</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
@@ -11118,13 +11118,13 @@
         <v>99</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
@@ -11153,13 +11153,13 @@
         <v>104</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
@@ -11188,13 +11188,13 @@
         <v>112</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K291" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
@@ -11223,13 +11223,13 @@
         <v>114</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K292" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
@@ -11258,13 +11258,13 @@
         <v>95</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
@@ -11293,13 +11293,13 @@
         <v>81</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
@@ -11328,13 +11328,13 @@
         <v>91</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
@@ -11363,13 +11363,13 @@
         <v>71</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
@@ -11398,13 +11398,13 @@
         <v>82</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
@@ -11433,13 +11433,13 @@
         <v>67</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
@@ -11468,13 +11468,13 @@
         <v>56</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
@@ -11503,13 +11503,13 @@
         <v>75</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
@@ -11538,13 +11538,13 @@
         <v>72</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K301" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
@@ -11573,13 +11573,13 @@
         <v>56</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K302" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
@@ -11608,13 +11608,13 @@
         <v>65</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
@@ -11643,13 +11643,13 @@
         <v>58</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
@@ -11678,13 +11678,13 @@
         <v>58</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
@@ -11713,13 +11713,13 @@
         <v>57</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
@@ -11748,13 +11748,13 @@
         <v>63</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.35">
@@ -11783,13 +11783,13 @@
         <v>57</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.35">
@@ -11818,13 +11818,13 @@
         <v>59</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K309" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.35">
@@ -11853,13 +11853,13 @@
         <v>62</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.35">
@@ -11888,13 +11888,13 @@
         <v>63</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
@@ -11923,13 +11923,13 @@
         <v>58</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.35">
@@ -11958,13 +11958,13 @@
         <v>56</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.35">
@@ -11993,13 +11993,13 @@
         <v>75</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.35">
@@ -12028,13 +12028,13 @@
         <v>56</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
@@ -12063,13 +12063,13 @@
         <v>56</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K316" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.35">
@@ -12098,13 +12098,13 @@
         <v>56</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.35">
@@ -12133,13 +12133,13 @@
         <v>56</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.35">
@@ -12168,13 +12168,13 @@
         <v>56</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K319" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.35">
@@ -12203,13 +12203,13 @@
         <v>56</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K320" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
@@ -12238,13 +12238,13 @@
         <v>61</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K321" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
@@ -12273,13 +12273,13 @@
         <v>113</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
@@ -12308,13 +12308,13 @@
         <v>80</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K323" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
@@ -12343,13 +12343,13 @@
         <v>53</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K324" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
@@ -12378,13 +12378,13 @@
         <v>54</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K325" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
@@ -12413,13 +12413,13 @@
         <v>59</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K326" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
@@ -12448,13 +12448,13 @@
         <v>57</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
@@ -12483,13 +12483,13 @@
         <v>51</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
@@ -12518,13 +12518,13 @@
         <v>51</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K329" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
@@ -12553,13 +12553,13 @@
         <v>52</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K330" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.35">
@@ -12588,13 +12588,13 @@
         <v>104</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K331" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.35">
@@ -12623,13 +12623,13 @@
         <v>112</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K332" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
@@ -12658,13 +12658,13 @@
         <v>107</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K333" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
@@ -12693,13 +12693,13 @@
         <v>77</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K334" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.35">
@@ -12728,13 +12728,13 @@
         <v>89</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K335" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
@@ -12763,13 +12763,13 @@
         <v>89</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K336" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.35">
@@ -12798,13 +12798,13 @@
         <v>115</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K337" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.35">
@@ -12833,13 +12833,13 @@
         <v>111</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K338" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
@@ -12868,13 +12868,13 @@
         <v>84</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K339" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
@@ -12903,13 +12903,13 @@
         <v>97</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K340" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
@@ -12938,13 +12938,13 @@
         <v>63</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K341" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.35">
@@ -12973,13 +12973,13 @@
         <v>69</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K342" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.35">
@@ -13008,13 +13008,13 @@
         <v>86</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J343" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K343" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.35">
@@ -13043,13 +13043,13 @@
         <v>80</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.35">
@@ -13078,13 +13078,13 @@
         <v>99</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K345" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
@@ -13113,13 +13113,13 @@
         <v>89</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K346" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.35">
@@ -13148,13 +13148,13 @@
         <v>75</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K347" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.35">
@@ -13183,13 +13183,13 @@
         <v>99</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K348" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.35">
@@ -13218,13 +13218,13 @@
         <v>117</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K349" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
@@ -13253,13 +13253,13 @@
         <v>125</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K350" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
@@ -13288,13 +13288,13 @@
         <v>106</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K351" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
@@ -13323,13 +13323,13 @@
         <v>90</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K352" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
@@ -13358,13 +13358,13 @@
         <v>86</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K353" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
@@ -13393,13 +13393,13 @@
         <v>95</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K354" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
@@ -13428,13 +13428,13 @@
         <v>97</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K355" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
@@ -13463,13 +13463,13 @@
         <v>100</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J356" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K356" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
@@ -13498,13 +13498,13 @@
         <v>92</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K357" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
@@ -13533,13 +13533,13 @@
         <v>82</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K358" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
@@ -13568,13 +13568,13 @@
         <v>65</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K359" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
@@ -13603,13 +13603,13 @@
         <v>91</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K360" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
@@ -13638,13 +13638,13 @@
         <v>79</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K361" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
@@ -13673,13 +13673,13 @@
         <v>82</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K362" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
@@ -13708,13 +13708,13 @@
         <v>70</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K363" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
@@ -13743,13 +13743,13 @@
         <v>89</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K364" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.35">
@@ -13778,13 +13778,13 @@
         <v>87</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K365" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.35">
@@ -13813,13 +13813,13 @@
         <v>108</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K366" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.35">
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I367" s="2"/>
       <c r="J367" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K367" s="3">
         <v>0</v>
